--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED91FA1-6B3E-4738-B9F7-40819AC1E5CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34622753-260B-4B6D-A2D7-18A6EE293C88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -280,50 +280,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +656,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,192 +682,192 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
